--- a/Project/Data/Water/Cantons/VS/VS 2017.xlsx
+++ b/Project/Data/Water/Cantons/VS/VS 2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40" windowWidth="25360" windowHeight="15500"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="23360" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,32 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>Massaboden</t>
   </si>
   <si>
@@ -456,6 +435,36 @@
   </si>
   <si>
     <t>2ème Palier Isérables, Riddes</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -522,12 +531,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -873,4628 +883,4617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+      <selection activeCell="K87" sqref="A87:K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>501100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1899</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1959</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>501100</v>
+        <v>508400</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="E3" s="2">
-        <v>1959</v>
+        <v>1990</v>
       </c>
       <c r="F3" s="3">
-        <v>20</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="3">
-        <v>7.2</v>
+        <v>0.97</v>
       </c>
       <c r="H3" s="3">
-        <v>7.2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I3" s="3">
-        <v>14</v>
+        <v>0.81</v>
       </c>
       <c r="J3" s="3">
-        <v>29</v>
+        <v>1.45</v>
       </c>
       <c r="K3" s="3">
-        <v>43</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>508400</v>
+        <v>509000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E4" s="2">
-        <v>1990</v>
+        <v>1953</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3</v>
+        <v>0.92</v>
       </c>
       <c r="G4" s="3">
-        <v>0.97</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3">
-        <v>0.57999999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="I4" s="3">
-        <v>0.81</v>
+        <v>3.2</v>
       </c>
       <c r="J4" s="3">
-        <v>1.45</v>
+        <v>2.92</v>
       </c>
       <c r="K4" s="3">
-        <v>2.2599999999999998</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>509000</v>
+        <v>503800</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1902</v>
+        <v>1907</v>
       </c>
       <c r="E5" s="2">
-        <v>1953</v>
+        <v>1990</v>
       </c>
       <c r="F5" s="3">
-        <v>0.92</v>
+        <v>0.65</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
+        <v>0.72</v>
       </c>
       <c r="H5" s="3">
-        <v>7.5</v>
+        <v>0.72</v>
       </c>
       <c r="I5" s="3">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="J5" s="3">
-        <v>2.92</v>
+        <v>1.6</v>
       </c>
       <c r="K5" s="3">
-        <v>6.12</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>503800</v>
+        <v>506400</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E6" s="2">
-        <v>1990</v>
+        <v>1945</v>
       </c>
       <c r="F6" s="3">
-        <v>0.65</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>0.72</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3">
-        <v>0.72</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3">
-        <v>0.6</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J6" s="3">
-        <v>1.6</v>
+        <v>52.9</v>
       </c>
       <c r="K6" s="3">
-        <v>2.2000000000000002</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>506400</v>
+        <v>503400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>1908</v>
       </c>
       <c r="E7" s="2">
-        <v>1945</v>
+        <v>2014</v>
       </c>
       <c r="F7" s="3">
-        <v>10.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="G7" s="3">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H7" s="3">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3">
-        <v>36.299999999999997</v>
+        <v>130</v>
       </c>
       <c r="J7" s="3">
-        <v>52.9</v>
+        <v>160</v>
       </c>
       <c r="K7" s="3">
-        <v>89.2</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>503400</v>
+        <v>502200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E8" s="2">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="F8" s="3">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="G8" s="3">
-        <v>52</v>
+        <v>29.2</v>
       </c>
       <c r="H8" s="3">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J8" s="3">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="K8" s="3">
-        <v>290</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>502200</v>
+        <v>502900</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
         <v>1909</v>
       </c>
       <c r="E9" s="2">
-        <v>1999</v>
+        <v>2014</v>
       </c>
       <c r="F9" s="3">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="G9" s="3">
-        <v>29.2</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3">
-        <v>27</v>
+        <v>12.3</v>
       </c>
       <c r="I9" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9" s="3">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>502900</v>
+        <v>508500</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="E10" s="2">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="F10" s="3">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>13</v>
+        <v>13.6</v>
       </c>
       <c r="H10" s="3">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
       <c r="I10" s="3">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="J10" s="3">
-        <v>30</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="K10" s="3">
-        <v>41</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>508500</v>
+        <v>503000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="E11" s="2">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G11" s="3">
-        <v>13.6</v>
+        <v>47.84</v>
       </c>
       <c r="H11" s="3">
-        <v>11.6</v>
+        <v>46.4</v>
       </c>
       <c r="I11" s="3">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="J11" s="3">
-        <v>36.799999999999997</v>
+        <v>183</v>
       </c>
       <c r="K11" s="3">
-        <v>55.3</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>503000</v>
+        <v>504000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>1911</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1998</v>
+        <v>1915</v>
       </c>
       <c r="F12" s="3">
-        <v>62</v>
+        <v>9.5</v>
       </c>
       <c r="G12" s="3">
-        <v>47.84</v>
+        <v>25.2</v>
       </c>
       <c r="H12" s="3">
-        <v>46.4</v>
+        <v>24</v>
       </c>
       <c r="I12" s="3">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J12" s="3">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="K12" s="3">
-        <v>263</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>504000</v>
+        <v>505600</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>1915</v>
       </c>
+      <c r="E13" s="2">
+        <v>1960</v>
+      </c>
       <c r="F13" s="3">
-        <v>9.5</v>
+        <v>0.17</v>
       </c>
       <c r="G13" s="3">
-        <v>25.2</v>
+        <v>0.34</v>
       </c>
       <c r="H13" s="3">
-        <v>24</v>
+        <v>0.39</v>
       </c>
       <c r="I13" s="3">
-        <v>27</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="3">
-        <v>54</v>
+        <v>0.5</v>
       </c>
       <c r="K13" s="3">
-        <v>81</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>505600</v>
+        <v>502450</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>1915</v>
       </c>
       <c r="E14" s="2">
-        <v>1960</v>
+        <v>1994</v>
       </c>
       <c r="F14" s="3">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G14" s="3">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="H14" s="3">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="I14" s="3">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="J14" s="3">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="K14" s="3">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>502450</v>
+        <v>506700</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="E15" s="2">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="F15" s="3">
-        <v>0.22</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3">
-        <v>0.45</v>
+        <v>112</v>
       </c>
       <c r="H15" s="3">
-        <v>0.45</v>
+        <v>98</v>
       </c>
       <c r="I15" s="3">
-        <v>1.4</v>
+        <v>94</v>
       </c>
       <c r="J15" s="3">
-        <v>1.6</v>
+        <v>54</v>
       </c>
       <c r="K15" s="3">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>506700</v>
+        <v>502800</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E16" s="2">
-        <v>1977</v>
+        <v>1954</v>
       </c>
       <c r="F16" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="H16" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="J16" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="K16" s="3">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="G16" s="3">
-        <v>112</v>
-      </c>
-      <c r="H16" s="3">
-        <v>98</v>
-      </c>
-      <c r="I16" s="3">
-        <v>94</v>
-      </c>
-      <c r="J16" s="3">
-        <v>54</v>
-      </c>
-      <c r="K16" s="3">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="B17" s="2">
+        <v>502600</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1926</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1942</v>
+      </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G17" s="3">
-        <v>30</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H17" s="3">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="I17" s="3">
-        <v>3.5</v>
+        <v>13.2</v>
       </c>
       <c r="J17" s="3">
-        <v>8.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K17" s="3">
-        <v>12</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>502800</v>
+        <v>502700</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="E18" s="2">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="F18" s="3">
-        <v>3.9</v>
+        <v>0.72</v>
       </c>
       <c r="G18" s="3">
-        <v>23.9</v>
+        <v>0.99</v>
       </c>
       <c r="H18" s="3">
-        <v>21.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I18" s="3">
-        <v>24.7</v>
+        <v>0.4</v>
       </c>
       <c r="J18" s="3">
-        <v>45.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K18" s="3">
-        <v>70.099999999999994</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>502600</v>
+        <v>507200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E19" s="2">
-        <v>1942</v>
+        <v>1990</v>
       </c>
       <c r="F19" s="3">
-        <v>1.1200000000000001</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G19" s="3">
-        <v>8.1999999999999993</v>
+        <v>92</v>
       </c>
       <c r="H19" s="3">
-        <v>7.3</v>
+        <v>92</v>
       </c>
       <c r="I19" s="3">
-        <v>13.2</v>
+        <v>116</v>
       </c>
       <c r="J19" s="3">
-        <v>2.2000000000000002</v>
+        <v>124</v>
       </c>
       <c r="K19" s="3">
-        <v>15.4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>502100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1929</v>
+      </c>
       <c r="F20" s="3">
         <v>0.45</v>
       </c>
       <c r="G20" s="3">
-        <v>5.67</v>
+        <v>0.59</v>
       </c>
       <c r="H20" s="3">
-        <v>4.7699999999999996</v>
+        <v>0.52</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.9</v>
       </c>
       <c r="J20" s="3">
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="K20" s="3">
-        <v>10</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>502700</v>
+        <v>506300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>1926</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1955</v>
+        <v>1929</v>
       </c>
       <c r="F21" s="3">
-        <v>0.72</v>
+        <v>6.8</v>
       </c>
       <c r="G21" s="3">
-        <v>0.99</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3">
-        <v>1.1000000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="I21" s="3">
-        <v>0.4</v>
+        <v>27.24</v>
       </c>
       <c r="J21" s="3">
-        <v>1.1000000000000001</v>
+        <v>29.32</v>
       </c>
       <c r="K21" s="3">
-        <v>1.5</v>
+        <v>56.56</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>507200</v>
+        <v>506600</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="E22" s="2">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="F22" s="3">
-        <v>17.399999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="G22" s="3">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
-        <v>116</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="3">
-        <v>124</v>
+        <v>1.5</v>
       </c>
       <c r="K22" s="3">
-        <v>240</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>502100</v>
+        <v>505700</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>1929</v>
+        <v>1930</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1994</v>
       </c>
       <c r="F23" s="3">
-        <v>0.45</v>
+        <v>1.2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.59</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H23" s="3">
-        <v>0.52</v>
+        <v>5.5</v>
       </c>
       <c r="I23" s="3">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="J23" s="3">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="K23" s="3">
-        <v>2.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>506300</v>
+        <v>506100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>1929</v>
+        <v>1931</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1958</v>
       </c>
       <c r="F24" s="3">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3">
-        <v>11</v>
+        <v>26.4</v>
       </c>
       <c r="H24" s="3">
-        <v>8.5</v>
+        <v>24</v>
       </c>
       <c r="I24" s="3">
-        <v>27.24</v>
+        <v>42.6</v>
       </c>
       <c r="J24" s="3">
-        <v>29.32</v>
+        <v>63.9</v>
       </c>
       <c r="K24" s="3">
-        <v>56.56</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>506600</v>
+        <v>501400</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>1929</v>
+        <v>1942</v>
       </c>
       <c r="E25" s="2">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="F25" s="3">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="I25" s="3">
-        <v>0.5</v>
+        <v>15.2</v>
       </c>
       <c r="J25" s="3">
-        <v>1.5</v>
+        <v>20.3</v>
       </c>
       <c r="K25" s="3">
-        <v>2</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>505700</v>
+        <v>505175</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>1930</v>
+        <v>1942</v>
       </c>
       <c r="E26" s="2">
-        <v>1994</v>
+        <v>2009</v>
       </c>
       <c r="F26" s="3">
-        <v>1.2</v>
+        <v>0.06</v>
       </c>
       <c r="G26" s="3">
-        <v>8.6999999999999993</v>
+        <v>0.31</v>
       </c>
       <c r="H26" s="3">
-        <v>5.5</v>
+        <v>0.31</v>
       </c>
       <c r="I26" s="3">
-        <v>1.6</v>
+        <v>0.84</v>
       </c>
       <c r="J26" s="3">
-        <v>9</v>
+        <v>1.08</v>
       </c>
       <c r="K26" s="3">
-        <v>10.6</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>506100</v>
+        <v>501000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>1931</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="F27" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G27" s="3">
-        <v>26.4</v>
+        <v>54.9</v>
       </c>
       <c r="H27" s="3">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I27" s="3">
-        <v>42.6</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="J27" s="3">
-        <v>63.9</v>
+        <v>192.9</v>
       </c>
       <c r="K27" s="3">
-        <v>106.5</v>
+        <v>272.8</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>501400</v>
+        <v>506200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>1942</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1980</v>
+        <v>1943</v>
       </c>
       <c r="F28" s="3">
-        <v>1.5</v>
+        <v>0.36</v>
       </c>
       <c r="G28" s="3">
-        <v>6.1</v>
+        <v>0.46</v>
       </c>
       <c r="H28" s="3">
-        <v>6.7</v>
+        <v>0.54</v>
       </c>
       <c r="I28" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="J28" s="3">
-        <v>20.3</v>
+        <v>1.4</v>
       </c>
       <c r="K28" s="3">
-        <v>35.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>505175</v>
+        <v>506000</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>1942</v>
+        <v>1947</v>
       </c>
       <c r="E29" s="2">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="F29" s="3">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="G29" s="3">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="H29" s="3">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I29" s="3">
-        <v>0.84</v>
+        <v>0.48</v>
       </c>
       <c r="J29" s="3">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="K29" s="3">
-        <v>1.92</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>501000</v>
+        <v>502000</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>1943</v>
+        <v>1949</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1990</v>
       </c>
       <c r="F30" s="3">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="G30" s="3">
-        <v>54.9</v>
+        <v>3.4</v>
       </c>
       <c r="H30" s="3">
-        <v>45</v>
+        <v>3.3</v>
       </c>
       <c r="I30" s="3">
-        <v>79.900000000000006</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J30" s="3">
-        <v>192.9</v>
+        <v>7.7</v>
       </c>
       <c r="K30" s="3">
-        <v>272.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>506200</v>
+        <v>504300</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>1943</v>
+        <v>1950</v>
       </c>
       <c r="F31" s="3">
-        <v>0.36</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G31" s="3">
-        <v>0.46</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H31" s="3">
-        <v>0.54</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I31" s="3">
-        <v>1.4</v>
+        <v>7.2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3.8</v>
       </c>
       <c r="K31" s="3">
-        <v>1.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>506000</v>
+        <v>507700</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="E32" s="2">
-        <v>2004</v>
+        <v>1963</v>
       </c>
       <c r="F32" s="3">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.32</v>
+        <v>0.88</v>
       </c>
       <c r="H32" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0.48</v>
+        <v>0.9</v>
       </c>
       <c r="J32" s="3">
         <v>0.8</v>
       </c>
       <c r="K32" s="3">
-        <v>1.28</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>502000</v>
+        <v>507900</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="E33" s="2">
         <v>1990</v>
       </c>
       <c r="F33" s="3">
-        <v>0.8</v>
+        <v>220</v>
       </c>
       <c r="G33" s="3">
-        <v>3.4</v>
+        <v>52.2</v>
       </c>
       <c r="H33" s="3">
-        <v>3.3</v>
+        <v>40.6</v>
       </c>
       <c r="I33" s="3">
-        <v>4.4000000000000004</v>
+        <v>110.2</v>
       </c>
       <c r="J33" s="3">
-        <v>7.7</v>
+        <v>121.8</v>
       </c>
       <c r="K33" s="3">
-        <v>12.1</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>504300</v>
+        <v>507500</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>1950</v>
       </c>
+      <c r="E34" s="2">
+        <v>2012</v>
+      </c>
       <c r="F34" s="3">
-        <v>2.2000000000000002</v>
+        <v>6.5</v>
       </c>
       <c r="G34" s="3">
-        <v>4.0999999999999996</v>
+        <v>70</v>
       </c>
       <c r="H34" s="3">
-        <v>4.0999999999999996</v>
+        <v>70</v>
       </c>
       <c r="I34" s="3">
-        <v>7.2</v>
+        <v>63.2</v>
       </c>
       <c r="J34" s="3">
-        <v>3.8</v>
+        <v>47.1</v>
       </c>
       <c r="K34" s="3">
-        <v>11</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>507700</v>
+        <v>500900</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E35" s="2">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="F35" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G35" s="3">
-        <v>0.88</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H35" s="3">
-        <v>0.9</v>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I35" s="3">
+        <v>16</v>
       </c>
       <c r="J35" s="3">
-        <v>0.8</v>
+        <v>111.5</v>
       </c>
       <c r="K35" s="3">
-        <v>0.8</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>507900</v>
+        <v>603500</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E36" s="2">
-        <v>1990</v>
+        <v>1979</v>
       </c>
       <c r="F36" s="3">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="G36" s="3">
-        <v>52.2</v>
+        <v>46</v>
       </c>
       <c r="H36" s="3">
-        <v>40.6</v>
+        <v>42</v>
       </c>
       <c r="I36" s="3">
-        <v>110.2</v>
+        <v>48.3</v>
       </c>
       <c r="J36" s="3">
-        <v>121.8</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="K36" s="3">
-        <v>232</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>507500</v>
+        <v>504100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
-        <v>1950</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2012</v>
+        <v>1953</v>
       </c>
       <c r="F37" s="3">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="G37" s="3">
-        <v>70</v>
+        <v>0.43</v>
       </c>
       <c r="H37" s="3">
-        <v>70</v>
+        <v>0.4</v>
       </c>
       <c r="I37" s="3">
-        <v>63.2</v>
+        <v>0.6</v>
       </c>
       <c r="J37" s="3">
-        <v>47.1</v>
+        <v>1.4</v>
       </c>
       <c r="K37" s="3">
-        <v>110.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>500900</v>
+        <v>603600</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="E38" s="2">
-        <v>1965</v>
+        <v>1979</v>
       </c>
       <c r="F38" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3">
-        <v>35.299999999999997</v>
+        <v>5.2</v>
       </c>
       <c r="H38" s="3">
-        <v>35.299999999999997</v>
+        <v>5</v>
       </c>
       <c r="I38" s="3">
-        <v>16</v>
+        <v>3.8</v>
       </c>
       <c r="J38" s="3">
-        <v>111.5</v>
+        <v>12.7</v>
       </c>
       <c r="K38" s="3">
-        <v>127.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>603500</v>
+        <v>500600</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
-        <v>1952</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1979</v>
+        <v>1954</v>
       </c>
       <c r="F39" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G39" s="3">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H39" s="3">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I39" s="3">
-        <v>48.3</v>
+        <v>55.2</v>
       </c>
       <c r="J39" s="3">
-        <v>140.19999999999999</v>
+        <v>127.5</v>
       </c>
       <c r="K39" s="3">
-        <v>188.5</v>
+        <v>182.7</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>504100</v>
+        <v>505400</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>1953</v>
+        <v>1956</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1992</v>
       </c>
       <c r="F40" s="3">
-        <v>3.9</v>
+        <v>28.75</v>
       </c>
       <c r="G40" s="3">
-        <v>0.43</v>
+        <v>258</v>
       </c>
       <c r="H40" s="3">
-        <v>0.4</v>
+        <v>225</v>
       </c>
       <c r="I40" s="3">
-        <v>0.6</v>
+        <v>421.6</v>
       </c>
       <c r="J40" s="3">
-        <v>1.4</v>
+        <v>246.2</v>
       </c>
       <c r="K40" s="3">
-        <v>2</v>
+        <v>667.8</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>503700</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1956</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1998</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>36</v>
+      </c>
+      <c r="H41" s="3">
+        <v>34</v>
+      </c>
+      <c r="I41" s="3">
+        <v>56</v>
+      </c>
+      <c r="J41" s="3">
         <v>37</v>
       </c>
-      <c r="B41" s="2">
-        <v>603600</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1953</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1979</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="J41" s="3">
-        <v>12.7</v>
-      </c>
       <c r="K41" s="3">
-        <v>16.5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>500600</v>
+        <v>503600</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="F42" s="3">
-        <v>13</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="3">
-        <v>33</v>
+        <v>1.9</v>
       </c>
       <c r="H42" s="3">
-        <v>32</v>
-      </c>
-      <c r="I42" s="3">
-        <v>55.2</v>
+        <v>0.9</v>
       </c>
       <c r="J42" s="3">
-        <v>127.5</v>
+        <v>0.6</v>
       </c>
       <c r="K42" s="3">
-        <v>182.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>505400</v>
+        <v>505000</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
-        <v>1956</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1992</v>
+        <v>1957</v>
       </c>
       <c r="F43" s="3">
-        <v>28.75</v>
+        <v>45</v>
       </c>
       <c r="G43" s="3">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="H43" s="3">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>421.6</v>
+        <v>122</v>
       </c>
       <c r="J43" s="3">
-        <v>246.2</v>
+        <v>52</v>
       </c>
       <c r="K43" s="3">
-        <v>667.8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>503700</v>
+        <v>603400</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E44" s="2">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="F44" s="3">
-        <v>10.5</v>
+        <v>4.8</v>
       </c>
       <c r="G44" s="3">
-        <v>36</v>
+        <v>11.33</v>
       </c>
       <c r="H44" s="3">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I44" s="3">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="J44" s="3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K44" s="3">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>503600</v>
+        <v>503500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
         <v>1957</v>
       </c>
+      <c r="E45" s="2">
+        <v>1999</v>
+      </c>
       <c r="F45" s="3">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="G45" s="3">
-        <v>1.9</v>
+        <v>66</v>
       </c>
       <c r="H45" s="3">
-        <v>0.9</v>
+        <v>64</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0.6</v>
+        <v>47</v>
       </c>
       <c r="K45" s="3">
-        <v>0.6</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>505000</v>
+        <v>503200</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="F46" s="3">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G46" s="3">
-        <v>306</v>
+        <v>71</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="I46" s="3">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J46" s="3">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K46" s="3">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>603400</v>
+        <v>505900</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
-        <v>1957</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1986</v>
+        <v>1958</v>
       </c>
       <c r="F47" s="3">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="3">
-        <v>11.33</v>
+        <v>33.4</v>
       </c>
       <c r="H47" s="3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I47" s="3">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J47" s="3">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K47" s="3">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>503500</v>
+        <v>503300</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
-        <v>1957</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1999</v>
+        <v>1958</v>
       </c>
       <c r="F48" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G48" s="3">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="H48" s="3">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J48" s="3">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="K48" s="3">
-        <v>147</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>503200</v>
+        <v>503350</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2">
         <v>1958</v>
       </c>
       <c r="F49" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
-        <v>71</v>
+        <v>0.68</v>
       </c>
       <c r="H49" s="3">
-        <v>69</v>
-      </c>
-      <c r="I49" s="3">
-        <v>110</v>
-      </c>
-      <c r="J49" s="3">
-        <v>25</v>
-      </c>
-      <c r="K49" s="3">
-        <v>135</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="50" spans="1:11">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>505300</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1958</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1992</v>
+      </c>
       <c r="F50" s="3">
-        <v>10.3</v>
+        <v>34.5</v>
       </c>
       <c r="G50" s="3">
-        <v>31.7</v>
+        <v>140</v>
       </c>
       <c r="H50" s="3">
-        <v>35.5</v>
+        <v>138</v>
       </c>
       <c r="I50" s="3">
-        <v>1</v>
+        <v>184.6</v>
       </c>
       <c r="J50" s="3">
-        <v>30</v>
+        <v>101.2</v>
       </c>
       <c r="K50" s="3">
-        <v>31</v>
+        <v>285.8</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>505900</v>
+        <v>502300</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="F51" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3">
-        <v>33.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="H51" s="3">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I51" s="3">
-        <v>38</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="J51" s="3">
-        <v>69</v>
+        <v>127.9</v>
       </c>
       <c r="K51" s="3">
-        <v>107</v>
+        <v>163.1</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>503300</v>
+        <v>500200</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="F52" s="3">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="G52" s="3">
-        <v>50</v>
+        <v>1.99</v>
       </c>
       <c r="H52" s="3">
-        <v>45</v>
+        <v>1.89</v>
       </c>
       <c r="I52" s="3">
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="J52" s="3">
-        <v>120</v>
+        <v>6.8</v>
       </c>
       <c r="K52" s="3">
-        <v>210</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>503350</v>
+        <v>505100</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G53" s="3">
-        <v>0.68</v>
+        <v>392</v>
       </c>
       <c r="H53" s="3">
-        <v>0.65</v>
+        <v>384</v>
+      </c>
+      <c r="I53" s="3">
+        <v>163</v>
+      </c>
+      <c r="J53" s="3">
+        <v>61</v>
+      </c>
+      <c r="K53" s="3">
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>505300</v>
+        <v>501700</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2">
-        <v>1958</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1992</v>
+        <v>1960</v>
       </c>
       <c r="F54" s="3">
-        <v>34.5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3">
-        <v>140</v>
+        <v>1.55</v>
       </c>
       <c r="H54" s="3">
-        <v>138</v>
+        <v>1.5</v>
       </c>
       <c r="I54" s="3">
-        <v>184.6</v>
+        <v>0.03</v>
       </c>
       <c r="J54" s="3">
-        <v>101.2</v>
+        <v>0.17</v>
       </c>
       <c r="K54" s="3">
-        <v>285.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>504400</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1960</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1996</v>
+      </c>
+      <c r="F55" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G55" s="3">
+        <v>52</v>
+      </c>
+      <c r="H55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="2">
-        <v>502300</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1959</v>
-      </c>
-      <c r="F55" s="3">
-        <v>15</v>
-      </c>
-      <c r="G55" s="3">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="H55" s="3">
-        <v>63</v>
-      </c>
       <c r="I55" s="3">
-        <v>35.200000000000003</v>
+        <v>28</v>
       </c>
       <c r="J55" s="3">
-        <v>127.9</v>
+        <v>136</v>
       </c>
       <c r="K55" s="3">
-        <v>163.1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>500200</v>
+        <v>503100</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="F56" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="3">
         <v>0.5</v>
       </c>
-      <c r="G56" s="3">
-        <v>1.99</v>
-      </c>
-      <c r="H56" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="I56" s="3">
-        <v>2.5</v>
-      </c>
       <c r="J56" s="3">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="K56" s="3">
-        <v>9.3000000000000007</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>505100</v>
+        <v>504600</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D57" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="F57" s="3">
-        <v>45</v>
+        <v>9.9</v>
       </c>
       <c r="G57" s="3">
-        <v>392</v>
+        <v>23.4</v>
       </c>
       <c r="H57" s="3">
-        <v>384</v>
+        <v>26.5</v>
       </c>
       <c r="I57" s="3">
-        <v>163</v>
+        <v>1.6</v>
       </c>
       <c r="J57" s="3">
-        <v>61</v>
+        <v>43.3</v>
       </c>
       <c r="K57" s="3">
-        <v>224</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>501700</v>
+        <v>504900</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D58" s="2">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="G58" s="3">
-        <v>1.55</v>
+        <v>43</v>
       </c>
       <c r="H58" s="3">
-        <v>1.5</v>
+        <v>48.6</v>
       </c>
       <c r="I58" s="3">
-        <v>0.03</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J58" s="3">
-        <v>0.17</v>
+        <v>80.7</v>
       </c>
       <c r="K58" s="3">
-        <v>0.2</v>
+        <v>85.1</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>504400</v>
+        <v>505800</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D59" s="2">
-        <v>1960</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1996</v>
+        <v>1963</v>
       </c>
       <c r="F59" s="3">
-        <v>7.5</v>
+        <v>1.02</v>
       </c>
       <c r="G59" s="3">
-        <v>52</v>
+        <v>1.47</v>
       </c>
       <c r="H59" s="3">
-        <v>50</v>
+        <v>1.4</v>
       </c>
       <c r="I59" s="3">
-        <v>28</v>
+        <v>0.7</v>
       </c>
       <c r="J59" s="3">
-        <v>136</v>
+        <v>3.4</v>
       </c>
       <c r="K59" s="3">
-        <v>164</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>503100</v>
+        <v>508600</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2">
-        <v>1961</v>
+        <v>1963</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1994</v>
       </c>
       <c r="F60" s="3">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="G60" s="3">
-        <v>1.05</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="H60" s="3">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="I60" s="3">
-        <v>0.5</v>
+        <v>14.8</v>
       </c>
       <c r="J60" s="3">
-        <v>1.5</v>
+        <v>24.6</v>
       </c>
       <c r="K60" s="3">
-        <v>2</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>504600</v>
+        <v>505200</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61" s="2">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="F61" s="3">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="3">
-        <v>23.4</v>
+        <v>30</v>
       </c>
       <c r="H61" s="3">
-        <v>26.5</v>
+        <v>28</v>
       </c>
       <c r="I61" s="3">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="J61" s="3">
-        <v>43.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="K61" s="3">
-        <v>44.9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>504900</v>
+        <v>504800</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="F62" s="3">
-        <v>12.6</v>
+        <v>8.4</v>
       </c>
       <c r="G62" s="3">
-        <v>43</v>
+        <v>19.5</v>
       </c>
       <c r="H62" s="3">
-        <v>48.6</v>
+        <v>21.3</v>
       </c>
       <c r="I62" s="3">
-        <v>4.4000000000000004</v>
+        <v>2.6</v>
       </c>
       <c r="J62" s="3">
-        <v>80.7</v>
+        <v>39.6</v>
       </c>
       <c r="K62" s="3">
-        <v>85.1</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>505800</v>
+        <v>507600</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" s="2">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="F63" s="3">
-        <v>1.02</v>
+        <v>0.6</v>
       </c>
       <c r="G63" s="3">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="H63" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J63" s="3">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="K63" s="3">
-        <v>4.0999999999999996</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>508600</v>
+        <v>501800</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D64" s="2">
-        <v>1963</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1994</v>
+        <v>1965</v>
       </c>
       <c r="F64" s="3">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="G64" s="3">
-        <v>9.8000000000000007</v>
+        <v>185</v>
       </c>
       <c r="H64" s="3">
-        <v>9.4</v>
+        <v>180</v>
       </c>
       <c r="I64" s="3">
-        <v>14.8</v>
+        <v>215.5</v>
       </c>
       <c r="J64" s="3">
-        <v>24.6</v>
+        <v>302.89999999999998</v>
       </c>
       <c r="K64" s="3">
-        <v>39.4</v>
+        <v>518.4</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>505200</v>
+        <v>504700</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D65" s="2">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="F65" s="3">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="G65" s="3">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="H65" s="3">
-        <v>28</v>
+        <v>86.4</v>
       </c>
       <c r="I65" s="3">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="J65" s="3">
-        <v>69.599999999999994</v>
+        <v>197.4</v>
       </c>
       <c r="K65" s="3">
-        <v>72</v>
+        <v>205.9</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>504800</v>
+        <v>500400</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1965</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2003</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>26</v>
+      </c>
+      <c r="H66" s="3">
+        <v>25</v>
+      </c>
+      <c r="I66" s="3">
+        <v>22</v>
+      </c>
+      <c r="J66" s="3">
         <v>68</v>
       </c>
-      <c r="D66" s="2">
-        <v>1964</v>
-      </c>
-      <c r="F66" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="G66" s="3">
-        <v>19.5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>21.3</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="J66" s="3">
-        <v>39.6</v>
-      </c>
       <c r="K66" s="3">
-        <v>42.2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>507600</v>
+        <v>500300</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D67" s="2">
         <v>1965</v>
       </c>
+      <c r="E67" s="2">
+        <v>2003</v>
+      </c>
       <c r="F67" s="3">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="G67" s="3">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="H67" s="3">
         <v>1.1000000000000001</v>
       </c>
+      <c r="I67" s="3">
+        <v>0.6</v>
+      </c>
       <c r="J67" s="3">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="K67" s="3">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>501800</v>
+        <v>203600</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D68" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="F68" s="3">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="G68" s="3">
-        <v>185</v>
+        <v>4.93</v>
       </c>
       <c r="H68" s="3">
-        <v>180</v>
+        <v>4.93</v>
       </c>
       <c r="I68" s="3">
-        <v>215.5</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="J68" s="3">
-        <v>302.89999999999998</v>
+        <v>7.12</v>
       </c>
       <c r="K68" s="3">
-        <v>518.4</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>504700</v>
+        <v>501500</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D69" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="F69" s="3">
-        <v>17.8</v>
+        <v>19</v>
       </c>
       <c r="G69" s="3">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H69" s="3">
-        <v>86.4</v>
+        <v>74</v>
       </c>
       <c r="I69" s="3">
-        <v>8.5</v>
+        <v>85.4</v>
       </c>
       <c r="J69" s="3">
-        <v>197.4</v>
+        <v>48</v>
       </c>
       <c r="K69" s="3">
-        <v>205.9</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>500400</v>
+        <v>502400</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D70" s="2">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E70" s="2">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="F70" s="3">
-        <v>4.5</v>
+        <v>0.22</v>
       </c>
       <c r="G70" s="3">
-        <v>26</v>
+        <v>0.85</v>
       </c>
       <c r="H70" s="3">
-        <v>25</v>
+        <v>0.85</v>
       </c>
       <c r="I70" s="3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J70" s="3">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="K70" s="3">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>500300</v>
+        <v>500100</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D71" s="2">
-        <v>1965</v>
-      </c>
-      <c r="E71" s="2">
-        <v>2003</v>
+        <v>1967</v>
       </c>
       <c r="F71" s="3">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="G71" s="3">
-        <v>1.2</v>
+        <v>9.67</v>
       </c>
       <c r="H71" s="3">
-        <v>1.1000000000000001</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I71" s="3">
-        <v>0.6</v>
+        <v>16.8</v>
       </c>
       <c r="J71" s="3">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="K71" s="3">
-        <v>3</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>203600</v>
+        <v>501200</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D72" s="2">
-        <v>1966</v>
+        <v>1969</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1980</v>
       </c>
       <c r="F72" s="3">
-        <v>2.5</v>
+        <v>55</v>
       </c>
       <c r="G72" s="3">
-        <v>4.93</v>
+        <v>340</v>
       </c>
       <c r="H72" s="3">
-        <v>4.93</v>
+        <v>331</v>
       </c>
       <c r="I72" s="3">
-        <v>2.4700000000000002</v>
+        <v>16.5</v>
       </c>
       <c r="J72" s="3">
-        <v>7.12</v>
+        <v>547</v>
       </c>
       <c r="K72" s="3">
-        <v>9.59</v>
+        <v>563.5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>501500</v>
+        <v>500700</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D73" s="2">
-        <v>1966</v>
+        <v>1969</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2005</v>
       </c>
       <c r="F73" s="3">
-        <v>19</v>
+        <v>0.5</v>
       </c>
       <c r="G73" s="3">
-        <v>74</v>
+        <v>1.25</v>
       </c>
       <c r="H73" s="3">
-        <v>74</v>
+        <v>1.2</v>
       </c>
       <c r="I73" s="3">
-        <v>85.4</v>
+        <v>2</v>
       </c>
       <c r="J73" s="3">
-        <v>48</v>
+        <v>4.3</v>
       </c>
       <c r="K73" s="3">
-        <v>133.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>502400</v>
+        <v>504500</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D74" s="2">
-        <v>1966</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1995</v>
+        <v>1971</v>
       </c>
       <c r="F74" s="3">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="G74" s="3">
-        <v>0.85</v>
+        <v>0.48</v>
       </c>
       <c r="H74" s="3">
-        <v>0.85</v>
+        <v>0.45</v>
       </c>
       <c r="I74" s="3">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="J74" s="3">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="K74" s="3">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>500100</v>
+        <v>500800</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D75" s="2">
-        <v>1967</v>
+        <v>1971</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1989</v>
       </c>
       <c r="F75" s="3">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="G75" s="3">
-        <v>9.67</v>
+        <v>41</v>
       </c>
       <c r="H75" s="3">
-        <v>9.1999999999999993</v>
+        <v>41</v>
       </c>
       <c r="I75" s="3">
-        <v>16.8</v>
+        <v>9</v>
       </c>
       <c r="J75" s="3">
-        <v>4.8</v>
+        <v>47.4</v>
       </c>
       <c r="K75" s="3">
-        <v>21.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>501200</v>
+        <v>500500</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D76" s="2">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="E76" s="2">
-        <v>1980</v>
+        <v>1999</v>
       </c>
       <c r="F76" s="3">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G76" s="3">
-        <v>340</v>
+        <v>64</v>
       </c>
       <c r="H76" s="3">
-        <v>331</v>
+        <v>64</v>
       </c>
       <c r="I76" s="3">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="J76" s="3">
-        <v>547</v>
+        <v>129</v>
       </c>
       <c r="K76" s="3">
-        <v>563.5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>500700</v>
+        <v>502500</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D77" s="2">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="E77" s="2">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F77" s="3">
-        <v>0.5</v>
+        <v>22</v>
       </c>
       <c r="G77" s="3">
-        <v>1.25</v>
+        <v>122</v>
       </c>
       <c r="H77" s="3">
-        <v>1.2</v>
+        <v>122</v>
       </c>
       <c r="I77" s="3">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="J77" s="3">
-        <v>4.3</v>
+        <v>280</v>
       </c>
       <c r="K77" s="3">
-        <v>6.3</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>504500</v>
+        <v>503900</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D78" s="2">
-        <v>1971</v>
+        <v>1977</v>
       </c>
       <c r="F78" s="3">
-        <v>0.11</v>
+        <v>0.9</v>
       </c>
       <c r="G78" s="3">
-        <v>0.48</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H78" s="3">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="I78" s="3">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="J78" s="3">
-        <v>1.4</v>
+        <v>15.2</v>
       </c>
       <c r="K78" s="3">
-        <v>2.2999999999999998</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>500800</v>
+        <v>506800</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D79" s="2">
-        <v>1971</v>
-      </c>
-      <c r="E79" s="2">
-        <v>1989</v>
+        <v>1978</v>
       </c>
       <c r="F79" s="3">
-        <v>7.1</v>
+        <v>35</v>
       </c>
       <c r="G79" s="3">
-        <v>41</v>
+        <v>130.25</v>
       </c>
       <c r="H79" s="3">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I79" s="3">
-        <v>9</v>
+        <v>127.5</v>
       </c>
       <c r="J79" s="3">
-        <v>47.4</v>
+        <v>77.5</v>
       </c>
       <c r="K79" s="3">
-        <v>56.4</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>500500</v>
+        <v>507100</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2">
-        <v>1975</v>
-      </c>
-      <c r="E80" s="2">
-        <v>1999</v>
+        <v>1978</v>
       </c>
       <c r="F80" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G80" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H80" s="3">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I80" s="3">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J80" s="3">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="K80" s="3">
-        <v>142</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>502500</v>
+        <v>507300</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D81" s="2">
-        <v>1976</v>
-      </c>
-      <c r="E81" s="2">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="F81" s="3">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G81" s="3">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="H81" s="3">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="I81" s="3">
-        <v>50</v>
+        <v>112.5</v>
       </c>
       <c r="J81" s="3">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="K81" s="3">
-        <v>330</v>
+        <v>207.5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>503900</v>
+        <v>506900</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="F82" s="3">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G82" s="3">
-        <v>5.0999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="H82" s="3">
-        <v>4.5</v>
+        <v>0.21</v>
       </c>
       <c r="I82" s="3">
-        <v>7.3</v>
+        <v>0.05</v>
       </c>
       <c r="J82" s="3">
-        <v>15.2</v>
+        <v>0.1</v>
       </c>
       <c r="K82" s="3">
-        <v>22.5</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>506800</v>
+        <v>507800</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D83" s="2">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="F83" s="3">
-        <v>35</v>
+        <v>0.46</v>
       </c>
       <c r="G83" s="3">
-        <v>130.25</v>
+        <v>3.3</v>
       </c>
       <c r="H83" s="3">
-        <v>105</v>
+        <v>3.2</v>
       </c>
       <c r="I83" s="3">
-        <v>127.5</v>
+        <v>3.5</v>
       </c>
       <c r="J83" s="3">
-        <v>77.5</v>
+        <v>6.8</v>
       </c>
       <c r="K83" s="3">
-        <v>205</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>507100</v>
+        <v>506500</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D84" s="2">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="F84" s="3">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="G84" s="3">
-        <v>40</v>
+        <v>0.93</v>
       </c>
       <c r="H84" s="3">
-        <v>40</v>
+        <v>0.9</v>
       </c>
       <c r="I84" s="3">
-        <v>12.5</v>
+        <v>2.08</v>
       </c>
       <c r="J84" s="3">
-        <v>50</v>
+        <v>3.22</v>
       </c>
       <c r="K84" s="3">
-        <v>62.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>507300</v>
+        <v>501600</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D85" s="2">
-        <v>1978</v>
+        <v>1987</v>
       </c>
       <c r="F85" s="3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G85" s="3">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H85" s="3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I85" s="3">
-        <v>112.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J85" s="3">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="K85" s="3">
-        <v>207.5</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>506900</v>
+        <v>501350</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D86" s="2">
-        <v>1978</v>
+        <v>1990</v>
       </c>
       <c r="F86" s="3">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G86" s="3">
-        <v>0.3</v>
+        <v>2.35</v>
       </c>
       <c r="H86" s="3">
-        <v>0.21</v>
+        <v>2.35</v>
       </c>
       <c r="I86" s="3">
-        <v>0.05</v>
+        <v>4.22</v>
       </c>
       <c r="J86" s="3">
-        <v>0.1</v>
+        <v>1.51</v>
       </c>
       <c r="K86" s="3">
-        <v>0.15</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>507800</v>
+        <v>501375</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D87" s="2">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="F87" s="3">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="G87" s="3">
-        <v>3.3</v>
+        <v>5.01</v>
       </c>
       <c r="H87" s="3">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I87" s="3">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="J87" s="3">
-        <v>6.8</v>
+        <v>14.2</v>
       </c>
       <c r="K87" s="3">
-        <v>10.3</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>506500</v>
+        <v>500250</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D88" s="2">
-        <v>1981</v>
+        <v>1990</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2012</v>
       </c>
       <c r="F88" s="3">
-        <v>0.18</v>
+        <v>1.6</v>
       </c>
       <c r="G88" s="3">
-        <v>0.93</v>
+        <v>2.13</v>
       </c>
       <c r="H88" s="3">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="I88" s="3">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="J88" s="3">
-        <v>3.22</v>
+        <v>6.4</v>
       </c>
       <c r="K88" s="3">
-        <v>5.3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>501600</v>
+        <v>508650</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D89" s="2">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="F89" s="3">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="G89" s="3">
-        <v>46</v>
+        <v>0.4</v>
       </c>
       <c r="H89" s="3">
-        <v>54</v>
+        <v>0.36</v>
       </c>
       <c r="I89" s="3">
-        <v>2.2000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="J89" s="3">
-        <v>23</v>
+        <v>1.2</v>
       </c>
       <c r="K89" s="3">
-        <v>25.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>501350</v>
+        <v>502050</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D90" s="2">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="F90" s="3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G90" s="3">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="H90" s="3">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="I90" s="3">
-        <v>4.22</v>
+        <v>2.77</v>
       </c>
       <c r="J90" s="3">
-        <v>1.51</v>
+        <v>5.67</v>
       </c>
       <c r="K90" s="3">
-        <v>5.73</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="91" spans="1:11">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>505750</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1993</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2007</v>
+      </c>
       <c r="F91" s="3">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="G91" s="3">
-        <v>2.62</v>
+        <v>0.4</v>
       </c>
       <c r="H91" s="3">
-        <v>2.8</v>
+        <v>0.38</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0.49</v>
       </c>
       <c r="J91" s="3">
-        <v>1.06</v>
+        <v>0.41</v>
       </c>
       <c r="K91" s="3">
-        <v>1.06</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>501375</v>
+        <v>502350</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D92" s="2">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="F92" s="3">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G92" s="3">
-        <v>5.01</v>
+        <v>0.33</v>
       </c>
       <c r="H92" s="3">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="I92" s="3">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="J92" s="3">
-        <v>14.2</v>
+        <v>0.98</v>
       </c>
       <c r="K92" s="3">
-        <v>23.2</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>500250</v>
+        <v>501450</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D93" s="2">
-        <v>1990</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="F93" s="3">
-        <v>1.6</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G93" s="3">
-        <v>2.13</v>
+        <v>0.45</v>
       </c>
       <c r="H93" s="3">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="I93" s="3">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="J93" s="3">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="K93" s="3">
-        <v>8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>508650</v>
+        <v>506050</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D94" s="2">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="F94" s="3">
-        <v>5.7</v>
+        <v>0.3</v>
       </c>
       <c r="G94" s="3">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H94" s="3">
-        <v>0.36</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I94" s="3">
-        <v>0.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J94" s="3">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="K94" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>502050</v>
+        <v>507850</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D95" s="2">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="F95" s="3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G95" s="3">
-        <v>1.65</v>
+        <v>0.72</v>
       </c>
       <c r="H95" s="3">
-        <v>1.6</v>
+        <v>0.72</v>
       </c>
       <c r="I95" s="3">
-        <v>2.77</v>
+        <v>0.6</v>
       </c>
       <c r="J95" s="3">
-        <v>5.67</v>
+        <v>1.2</v>
       </c>
       <c r="K95" s="3">
-        <v>8.44</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>505750</v>
+        <v>505775</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D96" s="2">
-        <v>1993</v>
-      </c>
-      <c r="E96" s="2">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="F96" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G96" s="3">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="H96" s="3">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="I96" s="3">
-        <v>0.49</v>
+        <v>0.74</v>
       </c>
       <c r="J96" s="3">
-        <v>0.41</v>
+        <v>1.49</v>
       </c>
       <c r="K96" s="3">
-        <v>0.9</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>502350</v>
+        <v>504950</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D97" s="2">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="F97" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="H97" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I97" s="3">
-        <v>0.4</v>
+        <v>75</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1285</v>
+      </c>
+      <c r="H97" s="4">
+        <v>1260</v>
       </c>
       <c r="J97" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="K97" s="3">
-        <v>1.38</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>501450</v>
+        <v>502375</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D98" s="2">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="F98" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G98" s="3">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="H98" s="3">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I98" s="3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J98" s="3">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K98" s="3">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>506050</v>
+        <v>504350</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D99" s="2">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="F99" s="3">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G99" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K99" s="3">
         <v>1.2</v>
-      </c>
-      <c r="H99" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="I99" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J99" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="K99" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>507850</v>
+        <v>501850</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="2">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="F100" s="3">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>0.72</v>
+        <v>11.3</v>
       </c>
       <c r="H100" s="3">
-        <v>0.72</v>
+        <v>12</v>
       </c>
       <c r="I100" s="3">
-        <v>0.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J100" s="3">
-        <v>1.2</v>
+        <v>22</v>
       </c>
       <c r="K100" s="3">
-        <v>1.8</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>505775</v>
+        <v>504325</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D101" s="2">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="F101" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G101" s="3">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="H101" s="3">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="I101" s="3">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="J101" s="3">
-        <v>1.49</v>
+        <v>1.2</v>
       </c>
       <c r="K101" s="3">
-        <v>2.23</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>504950</v>
+        <v>508450</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D102" s="2">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="F102" s="3">
-        <v>75</v>
-      </c>
-      <c r="G102" s="4">
-        <v>1285</v>
-      </c>
-      <c r="H102" s="4">
-        <v>1260</v>
+        <v>0.37</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0.7</v>
       </c>
       <c r="J102" s="3">
-        <v>520</v>
+        <v>1.4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>2.1</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>502375</v>
+        <v>505125</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D103" s="2">
-        <v>2000</v>
+        <v>2005</v>
+      </c>
+      <c r="E103" s="2">
+        <v>2013</v>
       </c>
       <c r="F103" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="G103" s="3">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="H103" s="3">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="I103" s="3">
         <v>1</v>
       </c>
       <c r="J103" s="3">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="K103" s="3">
-        <v>2.8</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>504350</v>
+        <v>502410</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D104" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="F104" s="3">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G104" s="3">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="H104" s="3">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
       <c r="I104" s="3">
-        <v>0.5</v>
+        <v>2.85</v>
       </c>
       <c r="J104" s="3">
-        <v>0.7</v>
+        <v>4.04</v>
       </c>
       <c r="K104" s="3">
-        <v>1.2</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>501850</v>
+        <v>502430</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D105" s="2">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="F105" s="3">
-        <v>4</v>
+        <v>0.08</v>
       </c>
       <c r="G105" s="3">
-        <v>11.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H105" s="3">
-        <v>12</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I105" s="3">
-        <v>9.1999999999999993</v>
+        <v>0.62</v>
       </c>
       <c r="J105" s="3">
-        <v>22</v>
+        <v>1.9</v>
       </c>
       <c r="K105" s="3">
-        <v>31.2</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>504325</v>
+        <v>502420</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D106" s="2">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="F106" s="3">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="G106" s="3">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="H106" s="3">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="I106" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J106" s="3">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="K106" s="3">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>508450</v>
+        <v>502550</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D107" s="2">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="F107" s="3">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="G107" s="3">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="H107" s="3">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="I107" s="3">
         <v>0.7</v>
       </c>
       <c r="J107" s="3">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K107" s="3">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>505125</v>
+        <v>505780</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D108" s="2">
-        <v>2005</v>
-      </c>
-      <c r="E108" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F108" s="3">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="G108" s="3">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
       <c r="H108" s="3">
-        <v>0.35</v>
+        <v>0.84</v>
       </c>
       <c r="I108" s="3">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="J108" s="3">
-        <v>1.2</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K108" s="3">
-        <v>2.2000000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>502410</v>
+        <v>502415</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D109" s="2">
-        <v>2007</v>
+        <v>2009</v>
+      </c>
+      <c r="E109" s="2">
+        <v>2011</v>
       </c>
       <c r="F109" s="3">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="G109" s="3">
-        <v>1.06</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H109" s="3">
-        <v>1.06</v>
+        <v>0.62</v>
       </c>
       <c r="I109" s="3">
-        <v>2.85</v>
+        <v>0.95</v>
       </c>
       <c r="J109" s="3">
-        <v>4.04</v>
+        <v>1.35</v>
       </c>
       <c r="K109" s="3">
-        <v>6.89</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>502430</v>
+        <v>509025</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D110" s="2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F110" s="3">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G110" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="H110" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="I110" s="3">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="J110" s="3">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="K110" s="3">
-        <v>2.52</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>502420</v>
+        <v>502090</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D111" s="2">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F111" s="3">
         <v>0.08</v>
       </c>
       <c r="G111" s="3">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="H111" s="3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="I111" s="3">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="J111" s="3">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K111" s="3">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>502550</v>
+        <v>502475</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D112" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F112" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G112" s="3">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="H112" s="3">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="I112" s="3">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="J112" s="3">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K112" s="3">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>505780</v>
+        <v>504335</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D113" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F113" s="3">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="G113" s="3">
-        <v>0.9</v>
+        <v>0.59</v>
       </c>
       <c r="H113" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I113" s="3">
         <v>0.84</v>
       </c>
-      <c r="I113" s="3">
-        <v>1.05</v>
-      </c>
       <c r="J113" s="3">
-        <v>2.4500000000000002</v>
+        <v>1.36</v>
       </c>
       <c r="K113" s="3">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>502415</v>
+        <v>502390</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D114" s="2">
-        <v>2009</v>
-      </c>
-      <c r="E114" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F114" s="3">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="G114" s="3">
-        <v>0.55000000000000004</v>
+        <v>1.3</v>
       </c>
       <c r="H114" s="3">
-        <v>0.62</v>
+        <v>1.27</v>
       </c>
       <c r="I114" s="3">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="J114" s="3">
-        <v>1.35</v>
+        <v>4</v>
       </c>
       <c r="K114" s="3">
-        <v>2.2999999999999998</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>509025</v>
+        <v>502440</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D115" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F115" s="3">
-        <v>0.11</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G115" s="3">
-        <v>0.35</v>
+        <v>1.25</v>
       </c>
       <c r="H115" s="3">
-        <v>0.35</v>
+        <v>1.2</v>
       </c>
       <c r="I115" s="3">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="J115" s="3">
-        <v>1.3</v>
+        <v>3.77</v>
       </c>
       <c r="K115" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>502090</v>
+        <v>500550</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D116" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F116" s="3">
-        <v>0.08</v>
+        <v>10</v>
       </c>
       <c r="G116" s="3">
-        <v>0.49</v>
+        <v>3.1</v>
       </c>
       <c r="H116" s="3">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="I116" s="3">
-        <v>0.18</v>
+        <v>1.6</v>
       </c>
       <c r="J116" s="3">
-        <v>1.0900000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="K116" s="3">
-        <v>1.27</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>502475</v>
+        <v>503650</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D117" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F117" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G117" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H117" s="3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="I117" s="3">
-        <v>0.35</v>
+        <v>0.93</v>
       </c>
       <c r="J117" s="3">
-        <v>2.75</v>
+        <v>3.72</v>
       </c>
       <c r="K117" s="3">
-        <v>3.1</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>504335</v>
+        <v>503950</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D118" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F118" s="3">
-        <v>0.15</v>
+        <v>6</v>
       </c>
       <c r="G118" s="3">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="H118" s="3">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="I118" s="3">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="J118" s="3">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="K118" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>502390</v>
+        <v>501360</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D119" s="2">
-        <v>2010</v>
+        <v>2013</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2015</v>
       </c>
       <c r="F119" s="3">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="G119" s="3">
-        <v>1.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H119" s="3">
-        <v>1.27</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I119" s="3">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="J119" s="3">
-        <v>4</v>
+        <v>1.52</v>
       </c>
       <c r="K119" s="3">
-        <v>5.0599999999999996</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>502440</v>
+        <v>502480</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D120" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F120" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G120" s="3">
-        <v>1.25</v>
+        <v>0.99</v>
       </c>
       <c r="H120" s="3">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="I120" s="3">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="J120" s="3">
-        <v>3.77</v>
+        <v>2.1</v>
       </c>
       <c r="K120" s="3">
-        <v>3.9</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>500550</v>
+        <v>505450</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D121" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F121" s="3">
-        <v>10</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G121" s="3">
-        <v>3.1</v>
+        <v>0.47</v>
       </c>
       <c r="H121" s="3">
-        <v>2.8</v>
+        <v>0.49</v>
       </c>
       <c r="I121" s="3">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="J121" s="3">
-        <v>6.6</v>
+        <v>0.92</v>
       </c>
       <c r="K121" s="3">
-        <v>8.1999999999999993</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>503650</v>
+        <v>507250</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D122" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F122" s="3">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G122" s="3">
-        <v>2</v>
+        <v>0.46</v>
       </c>
       <c r="H122" s="3">
-        <v>2</v>
+        <v>0.44</v>
       </c>
       <c r="I122" s="3">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J122" s="3">
-        <v>3.72</v>
+        <v>1.4</v>
       </c>
       <c r="K122" s="3">
-        <v>4.6500000000000004</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>503950</v>
+        <v>500275</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D123" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F123" s="3">
-        <v>6</v>
+        <v>0.53</v>
       </c>
       <c r="G123" s="3">
-        <v>0.6</v>
+        <v>3.64</v>
       </c>
       <c r="H123" s="3">
-        <v>0.6</v>
+        <v>3.64</v>
       </c>
       <c r="I123" s="3">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="J123" s="3">
-        <v>1.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K123" s="3">
-        <v>2.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>501360</v>
+        <v>502395</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D124" s="2">
-        <v>2013</v>
-      </c>
-      <c r="E124" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F124" s="3">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G124" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.98</v>
       </c>
       <c r="H124" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.99</v>
       </c>
       <c r="I124" s="3">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="J124" s="3">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="K124" s="3">
-        <v>2.23</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>502480</v>
+        <v>508675</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D125" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F125" s="3">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="G125" s="3">
-        <v>0.99</v>
+        <v>0.42</v>
       </c>
       <c r="H125" s="3">
-        <v>0.99</v>
+        <v>0.42</v>
       </c>
       <c r="I125" s="3">
-        <v>0.1</v>
+        <v>1.45</v>
       </c>
       <c r="J125" s="3">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="K125" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>505450</v>
+        <v>505150</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D126" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F126" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G126" s="3">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="H126" s="3">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I126" s="3">
-        <v>1.38</v>
+        <v>0.8</v>
       </c>
       <c r="J126" s="3">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="K126" s="3">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>507250</v>
+        <v>502071</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D127" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F127" s="3">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G127" s="3">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="H127" s="3">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="I127" s="3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="J127" s="3">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="K127" s="3">
-        <v>2.4</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>500275</v>
+        <v>500150</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D128" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F128" s="3">
-        <v>0.53</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G128" s="3">
-        <v>3.64</v>
+        <v>2.35</v>
       </c>
       <c r="H128" s="3">
-        <v>3.64</v>
+        <v>2.35</v>
       </c>
       <c r="I128" s="3">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="J128" s="3">
-        <v>9.6999999999999993</v>
+        <v>7.2</v>
       </c>
       <c r="K128" s="3">
-        <v>12.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>502395</v>
+        <v>504340</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D129" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F129" s="3">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G129" s="3">
-        <v>0.98</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H129" s="3">
-        <v>0.99</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I129" s="3">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="J129" s="3">
-        <v>1.89</v>
+        <v>1.27</v>
       </c>
       <c r="K129" s="3">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>508675</v>
+        <v>501410</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D130" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F130" s="3">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="G130" s="3">
-        <v>0.42</v>
+        <v>1.44</v>
       </c>
       <c r="H130" s="3">
-        <v>0.42</v>
+        <v>1.44</v>
       </c>
       <c r="I130" s="3">
-        <v>1.45</v>
+        <v>0.91</v>
       </c>
       <c r="J130" s="3">
-        <v>1.45</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K130" s="3">
-        <v>2.9</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>505150</v>
+        <v>502070</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D131" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F131" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G131" s="3">
-        <v>0.45</v>
+        <v>4.7</v>
       </c>
       <c r="H131" s="3">
-        <v>0.45</v>
+        <v>4.7</v>
       </c>
       <c r="I131" s="3">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="J131" s="3">
-        <v>0.4</v>
+        <v>12.7</v>
       </c>
       <c r="K131" s="3">
-        <v>1.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>502071</v>
+        <v>501825</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D132" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F132" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G132" s="3">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="H132" s="3">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="I132" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="J132" s="3">
-        <v>3.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K132" s="3">
-        <v>4.5999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>500150</v>
+        <v>504375</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D133" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F133" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="G133" s="3">
-        <v>2.35</v>
+        <v>0.73</v>
       </c>
       <c r="H133" s="3">
-        <v>2.35</v>
+        <v>0.73</v>
       </c>
       <c r="I133" s="3">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="J133" s="3">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="K133" s="3">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>504340</v>
+        <v>501312</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D134" s="2">
         <v>2015</v>
       </c>
       <c r="F134" s="3">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="G134" s="3">
-        <v>0.57999999999999996</v>
+        <v>1.44</v>
       </c>
       <c r="H134" s="3">
-        <v>0.57999999999999996</v>
+        <v>1.44</v>
       </c>
       <c r="I134" s="3">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="J134" s="3">
-        <v>1.27</v>
+        <v>2.95</v>
       </c>
       <c r="K134" s="3">
-        <v>2.02</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>501410</v>
+        <v>505850</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D135" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F135" s="3">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="G135" s="3">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="H135" s="3">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="I135" s="3">
-        <v>0.91</v>
+        <v>0.6</v>
       </c>
       <c r="J135" s="3">
-        <v>2.5499999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="K135" s="3">
-        <v>3.46</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>502070</v>
+        <v>500225</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D136" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F136" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="G136" s="3">
-        <v>4.7</v>
+        <v>0.86</v>
       </c>
       <c r="H136" s="3">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="I136" s="3">
-        <v>1.3</v>
+        <v>0.46</v>
       </c>
       <c r="J136" s="3">
-        <v>12.7</v>
+        <v>2.62</v>
       </c>
       <c r="K136" s="3">
-        <v>14</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>501825</v>
+        <v>507400</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D137" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F137" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G137" s="3">
-        <v>0.43</v>
+        <v>1.7</v>
       </c>
       <c r="H137" s="3">
-        <v>0.43</v>
+        <v>1.7</v>
       </c>
       <c r="I137" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.45</v>
+      </c>
+      <c r="J137" s="3">
+        <v>3.75</v>
       </c>
       <c r="K137" s="3">
-        <v>1.1000000000000001</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>504375</v>
+        <v>505110</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D138" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F138" s="3">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="G138" s="3">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="H138" s="3">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="I138" s="3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J138" s="3">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K138" s="3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="2">
-        <v>133</v>
-      </c>
-      <c r="B139" s="2">
-        <v>501312</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D139" s="2">
-        <v>2015</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="G139" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="H139" s="3">
-        <v>1.44</v>
-      </c>
-      <c r="I139" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="J139" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="K139" s="3">
-        <v>3.86</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="2">
-        <v>134</v>
-      </c>
-      <c r="B140" s="2">
-        <v>505850</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D140" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="G140" s="3">
-        <v>2</v>
-      </c>
-      <c r="H140" s="3">
-        <v>2</v>
-      </c>
-      <c r="I140" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="J140" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K140" s="3">
-        <v>4.2</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="2">
-        <v>135</v>
-      </c>
-      <c r="B141" s="2">
-        <v>500225</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D141" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="H141" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I141" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="J141" s="3">
-        <v>2.62</v>
-      </c>
-      <c r="K141" s="3">
-        <v>3.08</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="2">
-        <v>136</v>
-      </c>
-      <c r="B142" s="2">
-        <v>507400</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D142" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="G142" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="H142" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="I142" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="J142" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="K142" s="3">
-        <v>5.2</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="2">
-        <v>137</v>
-      </c>
-      <c r="B143" s="2">
-        <v>505110</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D143" s="2">
-        <v>2016</v>
-      </c>
-      <c r="F143" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="H143" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="I143" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="J143" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="K143" s="3">
-        <v>3.5</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="1"/>
@@ -7913,71 +7912,6 @@
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
-    </row>
-    <row r="330" spans="1:11">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
-      <c r="K330" s="1"/>
-    </row>
-    <row r="331" spans="1:11">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
-      <c r="I331" s="1"/>
-      <c r="J331" s="1"/>
-      <c r="K331" s="1"/>
-    </row>
-    <row r="332" spans="1:11">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
-      <c r="K332" s="1"/>
-    </row>
-    <row r="333" spans="1:11">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-    </row>
-    <row r="334" spans="1:11">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
-      <c r="H334" s="1"/>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
